--- a/Tatulya/create cards/07.04.2024/штрихкоды_финал.xlsx
+++ b/Tatulya/create cards/07.04.2024/штрихкоды_финал.xlsx
@@ -401,14 +401,14 @@
   </sheetPr>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
